--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-17_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-17_valid.xlsx
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>2548</v>
+        <v>2558</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -14441,7 +14441,7 @@
         <v>0</v>
       </c>
       <c r="AZ42">
-        <v>1032.972972972973</v>
+        <v>1037.027027027027</v>
       </c>
       <c r="BA42">
         <v>0</v>
@@ -14555,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="CL42">
-        <v>1.215262321144674</v>
+        <v>1.220031796502385</v>
       </c>
       <c r="CM42">
         <v>0</v>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="DA42">
-        <v>0.9867563025210084</v>
+        <v>0.9901176470588235</v>
       </c>
     </row>
     <row r="43" spans="1:105">
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1515</v>
+        <v>1521</v>
       </c>
       <c r="O50">
         <v>708</v>
@@ -16977,7 +16977,7 @@
         <v>0</v>
       </c>
       <c r="AZ50">
-        <v>516.4772727272727</v>
+        <v>518.5227272727274</v>
       </c>
       <c r="BA50">
         <v>499.7647058823529</v>
@@ -17091,7 +17091,7 @@
         <v>0</v>
       </c>
       <c r="CL50">
-        <v>0.607620320855615</v>
+        <v>0.6100267379679145</v>
       </c>
       <c r="CM50">
         <v>0.6247058823529411</v>
@@ -17136,7 +17136,7 @@
         <v>0</v>
       </c>
       <c r="DA50">
-        <v>0.5386964232929353</v>
+        <v>0.5397605675436004</v>
       </c>
     </row>
     <row r="51" spans="1:105">
@@ -18131,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>5815</v>
+        <v>5942</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="AZ54">
-        <v>777.0601336302896</v>
+        <v>794.0311804008909</v>
       </c>
       <c r="BA54">
         <v>0</v>
@@ -18359,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="CL54">
-        <v>0.914188392506223</v>
+        <v>0.9341543298834011</v>
       </c>
       <c r="CM54">
         <v>0</v>
@@ -18404,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="DA54">
-        <v>0.914188392506223</v>
+        <v>0.9341543298834011</v>
       </c>
     </row>
     <row r="55" spans="1:105">
@@ -20350,7 +20350,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1335</v>
+        <v>1425</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -20464,7 +20464,7 @@
         <v>0</v>
       </c>
       <c r="AZ61">
-        <v>645.9677419354838</v>
+        <v>689.516129032258</v>
       </c>
       <c r="BA61">
         <v>0</v>
@@ -20578,7 +20578,7 @@
         <v>0</v>
       </c>
       <c r="CL61">
-        <v>0.7599620493358633</v>
+        <v>0.8111954459203036</v>
       </c>
       <c r="CM61">
         <v>0</v>
@@ -20623,7 +20623,7 @@
         <v>0</v>
       </c>
       <c r="DA61">
-        <v>0.6110235642674349</v>
+        <v>0.6349969271975124</v>
       </c>
     </row>
     <row r="62" spans="1:105">
